--- a/RES/log/api.xlsx
+++ b/RES/log/api.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Filter" sheetId="3" r:id="rId3"/>
+    <sheet name="goodList" sheetId="2" r:id="rId2"/>
+    <sheet name="filter" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>备注</t>
   </si>
@@ -55,7 +55,346 @@
     <t>API</t>
   </si>
   <si>
+    <t>goodCard</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>params</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>排序算法</t>
+  </si>
+  <si>
+    <t>查询需求</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sort:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 0 综合，1 价格</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pageNum:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,  //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pageSize:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表商品数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keyword:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,  //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品种类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键词</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sortType  // 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升序</t>
+    </r>
+  </si>
+  <si>
     <t>定位距离筛选</t>
+  </si>
+  <si>
+    <t>价格排序（顺序逆序）</t>
   </si>
 </sst>
 </file>
@@ -68,7 +407,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +439,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -245,6 +596,48 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -647,137 +1040,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,18 +1201,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +1221,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1152,18 +1548,18 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="A1:N29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.77777777777778" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.77777777777778" style="14" customWidth="1"/>
     <col min="2" max="2" width="25.8888888888889" style="6" customWidth="1"/>
     <col min="3" max="3" width="22" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="14.4" spans="1:8">
+    <row r="1" s="14" customFormat="1" ht="14.4" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1212,32 +1608,32 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="18"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="9"/>
@@ -1320,20 +1716,20 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="19"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1345,14 +1741,518 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="33.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" ht="43.2" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" ht="28.8" spans="1:14">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" ht="28.8" spans="1:14">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1365,7 +2265,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1373,7 +2273,7 @@
     <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="12.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="25.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1389,12 +2289,12 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
@@ -1403,7 +2303,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1420,7 +2320,9 @@
       <c r="A3" s="9"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1481,14 +2383,14 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1497,22 +2399,22 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="18"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="9"/>
@@ -1835,20 +2737,20 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="19"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RES/log/api.xlsx
+++ b/RES/log/api.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>备注</t>
   </si>
@@ -191,7 +191,16 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>综合算法（具体我也不懂，你根据经验吧）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -242,6 +251,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -292,6 +307,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -360,6 +381,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>sortType  // 1</t>
     </r>
     <r>
@@ -1170,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,9 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1548,7 +1572,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1744,7 +1768,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1880,7 +1904,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" ht="43.2" spans="1:14">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1912,7 +1936,9 @@
       <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1927,8 +1953,8 @@
     <row r="10" spans="1:14">
       <c r="A10" s="9"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="19" t="s">
-        <v>15</v>
+      <c r="C10" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1945,8 +1971,8 @@
     <row r="11" spans="1:14">
       <c r="A11" s="9"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="19" t="s">
-        <v>16</v>
+      <c r="C11" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1963,8 +1989,8 @@
     <row r="12" ht="28.8" spans="1:14">
       <c r="A12" s="9"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="19" t="s">
-        <v>17</v>
+      <c r="C12" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1981,8 +2007,8 @@
     <row r="13" spans="1:14">
       <c r="A13" s="9"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="20" t="s">
-        <v>18</v>
+      <c r="C13" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2303,7 +2329,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2321,7 +2347,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
